--- a/demo_data/file_description.xlsx
+++ b/demo_data/file_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itaro\OneDrive\Documents\GitHub\GatedGCN_NMR\thesis_db\final_testing_data_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itaro\OneDrive\Documents\GitHub\PDF_extractor\demo_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE3A43-B8C9-4EB2-A2AA-9C932D877E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F97F1DB-7E17-4550-A235-ABE9A0D30039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{980F50E1-7035-4399-B976-71325B8E42E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980F50E1-7035-4399-B976-71325B8E42E7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Filename</t>
   </si>
@@ -301,12 +301,15 @@
   <si>
     <t>Akshay Subhash Narode</t>
   </si>
+  <si>
+    <t>Pages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +324,12 @@
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,10 +352,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3882714-D4B4-4375-996D-8C2EBCDB674F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -696,7 +708,7 @@
     <col min="4" max="4" width="45.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +724,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -726,8 +741,12 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>276</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -740,8 +759,11 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -754,8 +776,11 @@
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -768,8 +793,11 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -785,8 +813,11 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -799,8 +830,11 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -813,8 +847,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -827,8 +864,11 @@
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -841,8 +881,11 @@
       <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -855,8 +898,11 @@
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -869,8 +915,11 @@
       <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -883,8 +932,11 @@
       <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -897,8 +949,11 @@
       <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -911,8 +966,11 @@
       <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -925,8 +983,11 @@
       <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -939,8 +1000,11 @@
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -953,8 +1017,11 @@
       <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -967,8 +1034,11 @@
       <c r="D19" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -981,8 +1051,11 @@
       <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -995,8 +1068,11 @@
       <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1009,8 +1085,11 @@
       <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1023,8 +1102,11 @@
       <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1037,8 +1119,11 @@
       <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1050,10 +1135,14 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="F25">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>